--- a/markdown_gen/students.xlsx
+++ b/markdown_gen/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/ht-timchen-beautiful/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A06D8EC-7BE7-AC45-AD63-9060E8952517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC2FD17-8BD8-9B44-A018-2CDD671CDF80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20500" yWindow="6800" windowWidth="27640" windowHeight="16940" xr2:uid="{6B51872E-076E-9247-ABD8-37B20A72DE66}"/>
   </bookViews>
@@ -430,10 +430,13 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
